--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/129.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/129.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2959625856576507</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.250531685072155</v>
+        <v>-1.616151074431486</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.24321536162687</v>
+        <v>-0.1482159467786227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.213746968123603</v>
+        <v>0.0742282232381615</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2884046630064432</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.234066266482665</v>
+        <v>-1.859593593507352</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3001368187050592</v>
+        <v>-0.2442314894743322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2192014887357609</v>
+        <v>0.04217506191302081</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2799172723627868</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.302745164446526</v>
+        <v>-1.945940673635251</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3696305706930562</v>
+        <v>-0.3368808799550692</v>
       </c>
       <c r="G4" t="n">
-        <v>0.204417011531388</v>
+        <v>-0.02789079566976584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2631466669979789</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.302672583885993</v>
+        <v>-2.043644476764199</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2876676003896219</v>
+        <v>-0.2433050199663519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2131108208577548</v>
+        <v>0.01801488406567674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2304900641481846</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.160012137594623</v>
+        <v>-1.915839258475704</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2698060733710551</v>
+        <v>-0.3006509818355578</v>
       </c>
       <c r="G6" t="n">
-        <v>0.212103231899767</v>
+        <v>-0.02906855249656634</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1791362863239513</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8128910324403841</v>
+        <v>-1.590356309170457</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1746334410506113</v>
+        <v>-0.0766149188524612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1607113156769756</v>
+        <v>0.006178763412703925</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1117076377049318</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4423453137749597</v>
+        <v>-1.364961952840242</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2018609099813214</v>
+        <v>-0.06794184682910381</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1997578274817096</v>
+        <v>-0.02079436859580219</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03482778739959631</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1326513050225045</v>
+        <v>-1.013792804154427</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2825009623368891</v>
+        <v>0.04399384537108351</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1226364075103014</v>
+        <v>-0.1774903095004992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04538527547201532</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7328840017410962</v>
+        <v>-0.6201737862876234</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3520685147267726</v>
+        <v>0.1007811199003882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1214165661568052</v>
+        <v>-0.1316334234191965</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1290829646942134</v>
       </c>
       <c r="E11" t="n">
-        <v>1.372318740036993</v>
+        <v>-0.2758863725975564</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5681975660565074</v>
+        <v>0.08498112476922975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1994162719027306</v>
+        <v>0.04089422849184988</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2203865203256757</v>
       </c>
       <c r="E12" t="n">
-        <v>2.08462436110804</v>
+        <v>0.4707962075770418</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8687536672237387</v>
+        <v>0.01765381102504189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2794762896947109</v>
+        <v>0.1714020052990156</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3255392652564049</v>
       </c>
       <c r="E13" t="n">
-        <v>2.597187059750866</v>
+        <v>0.8677673494832525</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.120087340015371</v>
+        <v>0.1088887954564001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3771666745687707</v>
+        <v>0.2374198193502254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4530099584227099</v>
       </c>
       <c r="E14" t="n">
-        <v>3.228792856240025</v>
+        <v>1.334603075148923</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.609241893005284</v>
+        <v>-0.2609207489521894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5414530782955973</v>
+        <v>0.4907833081540756</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6052000096041719</v>
       </c>
       <c r="E15" t="n">
-        <v>3.868559391384072</v>
+        <v>2.009078976165349</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.201779220545345</v>
+        <v>-0.6344666674265375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5796267936119047</v>
+        <v>0.5166323563553351</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7756889636557385</v>
       </c>
       <c r="E16" t="n">
-        <v>4.579828147304648</v>
+        <v>2.844046354457875</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.767148241460341</v>
+        <v>-0.9718424600076955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.729129939975712</v>
+        <v>0.6157316579926828</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9545972256316601</v>
       </c>
       <c r="E17" t="n">
-        <v>4.988271287219812</v>
+        <v>3.198738404972587</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.267647319037768</v>
+        <v>-1.137618290027141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8629959400290524</v>
+        <v>0.6165959155916347</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.135605002994275</v>
       </c>
       <c r="E18" t="n">
-        <v>5.366524573477302</v>
+        <v>3.845392164398474</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.683423535249474</v>
+        <v>-1.358405915485877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9928492719500674</v>
+        <v>0.6787279250112827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.319892563286026</v>
       </c>
       <c r="E19" t="n">
-        <v>5.585388509121575</v>
+        <v>4.08234146794968</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.155154484266725</v>
+        <v>-1.71013253167024</v>
       </c>
       <c r="G19" t="n">
-        <v>1.194136513531815</v>
+        <v>0.9560381194256152</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.507410754463071</v>
       </c>
       <c r="E20" t="n">
-        <v>5.816631394821127</v>
+        <v>4.513695668166209</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.479185822361312</v>
+        <v>-1.899980101038901</v>
       </c>
       <c r="G20" t="n">
-        <v>1.273370088806802</v>
+        <v>1.131614154879048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.688346281054383</v>
       </c>
       <c r="E21" t="n">
-        <v>6.00227539088564</v>
+        <v>4.930575230882154</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.670867118244616</v>
+        <v>-2.16802011108734</v>
       </c>
       <c r="G21" t="n">
-        <v>1.31794492162558</v>
+        <v>1.305884960084241</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.854170998667226</v>
       </c>
       <c r="E22" t="n">
-        <v>5.993813351416438</v>
+        <v>5.189435324824857</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.858014873737652</v>
+        <v>-2.585806625849609</v>
       </c>
       <c r="G22" t="n">
-        <v>1.347806637959165</v>
+        <v>1.226994160229586</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.999360053134447</v>
       </c>
       <c r="E23" t="n">
-        <v>6.078847272327298</v>
+        <v>5.369662005438494</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.950283063795421</v>
+        <v>-2.75549936645513</v>
       </c>
       <c r="G23" t="n">
-        <v>1.447019384842388</v>
+        <v>1.49022067629713</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.121146785915335</v>
       </c>
       <c r="E24" t="n">
-        <v>6.140901821820999</v>
+        <v>5.509248451519055</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.928486328570476</v>
+        <v>-2.903030639271011</v>
       </c>
       <c r="G24" t="n">
-        <v>1.474832377622776</v>
+        <v>1.632714614243748</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.220386041656379</v>
       </c>
       <c r="E25" t="n">
-        <v>6.144112444263401</v>
+        <v>5.746745463837981</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.898634370967719</v>
+        <v>-3.094168190870994</v>
       </c>
       <c r="G25" t="n">
-        <v>1.441933866239663</v>
+        <v>1.656978478606139</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.295468618528178</v>
       </c>
       <c r="E26" t="n">
-        <v>5.885487779701922</v>
+        <v>5.600829260974129</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.843133419145675</v>
+        <v>-3.201643838122461</v>
       </c>
       <c r="G26" t="n">
-        <v>1.379011399622949</v>
+        <v>1.748046344772069</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.34275962883139</v>
       </c>
       <c r="E27" t="n">
-        <v>5.727523203789589</v>
+        <v>5.647238125267889</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.67028494895866</v>
+        <v>-3.180205126334767</v>
       </c>
       <c r="G27" t="n">
-        <v>1.275645092931072</v>
+        <v>1.689440286784701</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.363347759647417</v>
       </c>
       <c r="E28" t="n">
-        <v>5.484264880758101</v>
+        <v>5.613660772171555</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.545327450309902</v>
+        <v>-3.185459288004613</v>
       </c>
       <c r="G28" t="n">
-        <v>1.18273587624204</v>
+        <v>1.706110638721579</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.356884235292626</v>
       </c>
       <c r="E29" t="n">
-        <v>5.174039707102382</v>
+        <v>5.487815838938128</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.414966054465156</v>
+        <v>-3.251664042743246</v>
       </c>
       <c r="G29" t="n">
-        <v>1.093445318928155</v>
+        <v>1.68805820653119</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.323093944036316</v>
       </c>
       <c r="E30" t="n">
-        <v>4.910906508898382</v>
+        <v>5.482574180642155</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.243278873246668</v>
+        <v>-3.119129499527247</v>
       </c>
       <c r="G30" t="n">
-        <v>1.042143670965522</v>
+        <v>1.616937186177629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.264502868330307</v>
       </c>
       <c r="E31" t="n">
-        <v>4.711461227760413</v>
+        <v>5.324072874534284</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.105320915373024</v>
+        <v>-3.128728736098246</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8878898524505244</v>
+        <v>1.440767087985044</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.180855187107607</v>
       </c>
       <c r="E32" t="n">
-        <v>4.329011687246897</v>
+        <v>4.934661699416365</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.914415743550883</v>
+        <v>-3.101919367791447</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8199745751739514</v>
+        <v>1.410909031175519</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.075205649830024</v>
       </c>
       <c r="E33" t="n">
-        <v>3.976949614690323</v>
+        <v>4.600406870938127</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.755284999304607</v>
+        <v>-3.159605970358617</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7103492624972858</v>
+        <v>1.234232088900556</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.95248663503616</v>
       </c>
       <c r="E34" t="n">
-        <v>3.535796428881159</v>
+        <v>4.122446192128572</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.40554733444712</v>
+        <v>-2.794090267514333</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5811546449071586</v>
+        <v>1.061901441368099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.815701746331171</v>
       </c>
       <c r="E35" t="n">
-        <v>3.23095807464248</v>
+        <v>3.890755624652287</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.275503707274959</v>
+        <v>-2.758677053180988</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5843701467149744</v>
+        <v>1.020952586972588</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.671170556566057</v>
       </c>
       <c r="E36" t="n">
-        <v>2.895025964303185</v>
+        <v>3.593209482024807</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.101002657014294</v>
+        <v>-2.528994954493234</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5363992755680629</v>
+        <v>0.9754647029007176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.52513061756928</v>
       </c>
       <c r="E37" t="n">
-        <v>2.513331505587483</v>
+        <v>3.185387241358572</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.047716022209185</v>
+        <v>-2.551678514382171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4957029283327254</v>
+        <v>0.9537210307746493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.380692826993697</v>
       </c>
       <c r="E38" t="n">
-        <v>2.264760773461519</v>
+        <v>3.002073142279237</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.922412698536711</v>
+        <v>-2.407332247340269</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4547266275067607</v>
+        <v>0.9580722048825699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.242959194311546</v>
       </c>
       <c r="E39" t="n">
-        <v>2.039546343730945</v>
+        <v>2.880692828399605</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.811782236584764</v>
+        <v>-2.327291137089268</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3193718110814782</v>
+        <v>0.7761218884364428</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.113539692322092</v>
       </c>
       <c r="E40" t="n">
-        <v>1.711305943046119</v>
+        <v>2.625676454561768</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.734380863022729</v>
+        <v>-2.314267500878666</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2798690786105367</v>
+        <v>0.7210869160114354</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9909004263393159</v>
       </c>
       <c r="E41" t="n">
-        <v>1.439356951380402</v>
+        <v>2.283258447745934</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.500973978762075</v>
+        <v>-2.078458139072302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2797068397105217</v>
+        <v>0.6906988381338168</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8761912673041237</v>
       </c>
       <c r="E42" t="n">
-        <v>1.216634657535021</v>
+        <v>1.889981595378786</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.4426094493627</v>
+        <v>-2.146499669928962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2185232569432171</v>
+        <v>0.6239552184772769</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7673218215298566</v>
       </c>
       <c r="E43" t="n">
-        <v>1.065338344381574</v>
+        <v>1.838046239833012</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.241297201033206</v>
+        <v>-1.819933501501809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1541796751496807</v>
+        <v>0.5556880169702202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6625902446370411</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8270203788317451</v>
+        <v>1.402787327443942</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.155968078514799</v>
+        <v>-1.804686094503785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2310083331962498</v>
+        <v>0.6913630417507954</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5631775609998085</v>
       </c>
       <c r="E45" t="n">
-        <v>0.676589543118604</v>
+        <v>1.253458618393685</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.121803371806756</v>
+        <v>-1.804297575032696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1331142348161563</v>
+        <v>0.5559667507194941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4688311440707263</v>
       </c>
       <c r="E46" t="n">
-        <v>0.522956013931859</v>
+        <v>1.136472173069347</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.094982719967437</v>
+        <v>-1.756058948708692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1338619975658494</v>
+        <v>0.4416578571660801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3804189134024951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3439888195157065</v>
+        <v>0.8934157337818619</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.959025911834204</v>
+        <v>-1.659064483326802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05702663039183602</v>
+        <v>0.4227088415808714</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2991754091730337</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2355241858868924</v>
+        <v>0.8957187942572625</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.873330836909749</v>
+        <v>-1.595728490491254</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.03310988690069898</v>
+        <v>0.4372194644013844</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2243957976723346</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1470454329937586</v>
+        <v>0.8248496711431986</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.878230939626742</v>
+        <v>-1.595038670205852</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.03815027137334492</v>
+        <v>0.3814995510563889</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1562802830203964</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06032447149101277</v>
+        <v>0.760124279006018</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.883925159064862</v>
+        <v>-1.551121331876608</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1133071368449476</v>
+        <v>0.3090001099733775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09434572154866071</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1102892493363982</v>
+        <v>0.5532123489432998</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.822389652067074</v>
+        <v>-1.454783141142898</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1640507073883558</v>
+        <v>0.2461563231239646</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03762466171982191</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1275445152022775</v>
+        <v>0.5415890906065122</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.795075574400266</v>
+        <v>-1.450567979345893</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1928950760331249</v>
+        <v>0.1850575193307279</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01469679846203726</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2167399248905903</v>
+        <v>0.3252008229891594</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.77140516285635</v>
+        <v>-1.441988225186078</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1977451652546255</v>
+        <v>0.1683158066746704</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06359401051502009</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2537987052098023</v>
+        <v>0.1235531182874537</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.809628891668151</v>
+        <v>-1.454143944273667</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2512980304351353</v>
+        <v>0.1405949119164712</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1096458889683062</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2664716370312734</v>
+        <v>0.2004555767359093</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.7594372993372</v>
+        <v>-1.46526157836943</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2827437107662348</v>
+        <v>0.1594591485276119</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1523554267442667</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3378811498649361</v>
+        <v>0.1748736737910655</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787292376644284</v>
+        <v>-1.418929564080941</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.288989298496135</v>
+        <v>0.06820647639662793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1912199456241878</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4317369634442807</v>
+        <v>0.05393494248140011</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.78729298656496</v>
+        <v>-1.40363458327013</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2849955379047887</v>
+        <v>0.1234622401066182</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2262395076355405</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4699484938425466</v>
+        <v>-0.02729856269264348</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.827254379384816</v>
+        <v>-1.335492415501806</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3193389513711183</v>
+        <v>0.04521307680390289</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2575517849115508</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4776225157973906</v>
+        <v>-0.003278056680274713</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.87798941103875</v>
+        <v>-1.45596638725579</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2768116222641833</v>
+        <v>0.08211815711257438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.285653124832161</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5685354621114259</v>
+        <v>-0.2009033345188269</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.003903265308649</v>
+        <v>-1.450990044454202</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3192346549353944</v>
+        <v>0.03979637127370338</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3110147921444186</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5134242496018249</v>
+        <v>-0.2141282445527551</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.063852978546893</v>
+        <v>-1.402963670525707</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2997934333640501</v>
+        <v>0.07211423817255273</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.33418115733617</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5026213345752633</v>
+        <v>-0.1958659996495647</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.059052292900209</v>
+        <v>-1.262994194260148</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3239920362140293</v>
+        <v>-0.007297433940044415</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3552391984947067</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5353374796760291</v>
+        <v>-0.2173461860432779</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.195881897521868</v>
+        <v>-1.337415495395593</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3243964136227132</v>
+        <v>0.04089971777794062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3750470989584128</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6027593311251129</v>
+        <v>-0.3524405663395889</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.356831425226206</v>
+        <v>-1.433629872231922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3000050758388816</v>
+        <v>0.01230602653131492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3949075822149411</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5867092685164877</v>
+        <v>-0.2535699849560217</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.481164365101975</v>
+        <v>-1.545774767224234</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3520740040128634</v>
+        <v>0.04278010322435488</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4147860746974494</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6095081034133302</v>
+        <v>-0.3201092811858511</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.661609397317887</v>
+        <v>-1.650010820801154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3618857979397094</v>
+        <v>-0.1169703204294965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4353677371685593</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.571621660735771</v>
+        <v>-0.3201977196839796</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.669553614132531</v>
+        <v>-1.612855673015016</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4324737476217924</v>
+        <v>-0.12801293428202</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4567165839423505</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5588462622406062</v>
+        <v>-0.3975643277674405</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.768874926896215</v>
+        <v>-1.665682122669519</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4405503172232901</v>
+        <v>-0.145542664452436</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4783331119800428</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5530733630351858</v>
+        <v>-0.2375949425906366</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.871606916084274</v>
+        <v>-1.828096679839406</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4234023973965185</v>
+        <v>-0.1199302654737548</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5003258748649464</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5567292275716137</v>
+        <v>-0.2213070109180797</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.950776449688202</v>
+        <v>-1.678693560466585</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4563137171138437</v>
+        <v>-0.09521140028650948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5219934683558594</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5872173324402189</v>
+        <v>-0.3552016772432274</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.026278835223183</v>
+        <v>-1.883712296748677</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4343224171930157</v>
+        <v>-0.1784905794103661</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5421034353483924</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.5773463762077283</v>
+        <v>-0.2191777778355523</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.184682554022774</v>
+        <v>-1.965126338443038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4995778303982905</v>
+        <v>-0.2765371579596466</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5604170814518386</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.546527084411649</v>
+        <v>-0.04611156596693733</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.275665946174974</v>
+        <v>-1.936543625768594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5453096827408598</v>
+        <v>-0.3326968241125776</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5751518335743968</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4525084220116126</v>
+        <v>-0.05680408535100753</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.340749361749406</v>
+        <v>-2.103668600325006</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5604015599663138</v>
+        <v>-0.3148859205101808</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5848187199634519</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.3617833312660157</v>
+        <v>-0.102339543235664</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.321932698951052</v>
+        <v>-2.084857426812742</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.570462201529273</v>
+        <v>-0.2855633740548411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.588220479905193</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2266993196212093</v>
+        <v>0.1002944032003432</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.327264015586506</v>
+        <v>-2.0912798915389</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5671100774898656</v>
+        <v>-0.268259314534822</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5838266236720012</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2071769785998575</v>
+        <v>0.1104855677881265</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.230594028004646</v>
+        <v>-1.955390174680109</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5487246286099722</v>
+        <v>-0.2630938963234427</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5715392941388904</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.04334130625314764</v>
+        <v>0.2859896326017035</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.178269543067107</v>
+        <v>-1.993602924919728</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5353612665824222</v>
+        <v>-0.2400547526799615</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5517491667798997</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03145143657443646</v>
+        <v>0.4999327282259732</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.172141060107142</v>
+        <v>-1.954642411930416</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.537550271891271</v>
+        <v>-0.2667479310978403</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5249720271868046</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08528791486963404</v>
+        <v>0.5111540488367841</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.121532586993634</v>
+        <v>-2.02651119503367</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5388646509496631</v>
+        <v>-0.2428744159685678</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4920837839334091</v>
       </c>
       <c r="E81" t="n">
-        <v>0.232356257891863</v>
+        <v>0.6837536713876867</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.998579592649008</v>
+        <v>-1.807960758617245</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5273877735752949</v>
+        <v>-0.2053630745072088</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4540150932070307</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3677836548776786</v>
+        <v>0.8718916330994229</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.919300883243942</v>
+        <v>-1.949862463586741</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5023194238402729</v>
+        <v>-0.1188647340514759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4111605799158137</v>
       </c>
       <c r="E83" t="n">
-        <v>0.49223979873015</v>
+        <v>0.9823427783724055</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.815317946747872</v>
+        <v>-1.97053328524241</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5270090128350343</v>
+        <v>-0.1306435221608344</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3647974591750235</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7613374112320699</v>
+        <v>1.122741638794394</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.62423101856406</v>
+        <v>-1.712959514006968</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5025219175049533</v>
+        <v>-0.1754470752333933</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3154813206925514</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9580014540840672</v>
+        <v>1.285946653161347</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.412112195683943</v>
+        <v>-1.564634734390638</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5192300845237896</v>
+        <v>-0.2357816484186646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2639034574367575</v>
       </c>
       <c r="E86" t="n">
-        <v>1.107780284593765</v>
+        <v>1.388781109023099</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.168459253974599</v>
+        <v>-1.265116108294555</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5102191164455138</v>
+        <v>-0.2019694758617825</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.211430941720295</v>
       </c>
       <c r="E87" t="n">
-        <v>1.290857124529845</v>
+        <v>1.563876526983255</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.970697963825132</v>
+        <v>-1.20388007234905</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4764600069875088</v>
+        <v>-0.1500078937269085</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1591324786367845</v>
       </c>
       <c r="E88" t="n">
-        <v>1.447797033705242</v>
+        <v>1.674622263943107</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.740643813524562</v>
+        <v>-1.129567947014743</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4719490336622801</v>
+        <v>-0.0006322207845416382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1082410186501894</v>
       </c>
       <c r="E89" t="n">
-        <v>1.513769103705695</v>
+        <v>1.585212772097256</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.460661556625396</v>
+        <v>-0.8867780430629973</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.4961598349257943</v>
+        <v>-0.09320415133933163</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06108264537070228</v>
       </c>
       <c r="E90" t="n">
-        <v>1.545913753132348</v>
+        <v>1.631397185581972</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.379037702218234</v>
+        <v>-0.968432393503997</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4931761029751428</v>
+        <v>-0.04065704535477944</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01956719945380955</v>
       </c>
       <c r="E91" t="n">
-        <v>1.559624160024968</v>
+        <v>1.585506143942772</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.02143145071002</v>
+        <v>-0.5490271492656392</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.4689104088507213</v>
+        <v>-0.08262385735978307</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01353108398513635</v>
       </c>
       <c r="E92" t="n">
-        <v>1.452264092741745</v>
+        <v>1.503500479191965</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8295235692953036</v>
+        <v>-0.5250121325393612</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4230980469788212</v>
+        <v>-0.1386060365957803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03555112825729201</v>
       </c>
       <c r="E93" t="n">
-        <v>1.424061970569591</v>
+        <v>1.514643729956152</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5372886159209461</v>
+        <v>-0.2531241329413189</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3657490355062316</v>
+        <v>-0.09419588235972397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04564376661785306</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410615659330003</v>
+        <v>1.53958521619041</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.347170241771809</v>
+        <v>-0.08887188477239018</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.3863777726352044</v>
+        <v>-0.1737685735309826</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04334087364167943</v>
       </c>
       <c r="E95" t="n">
-        <v>1.373449532971684</v>
+        <v>1.499076724523511</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2013802924880439</v>
+        <v>-0.07261627889570094</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.314345530790582</v>
+        <v>-0.06197438292780082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03026901144515844</v>
       </c>
       <c r="E96" t="n">
-        <v>1.306848024832826</v>
+        <v>1.387167258912424</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.03121303359601251</v>
+        <v>0.1217093280816443</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.3570302194321181</v>
+        <v>-0.1594939900123711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.00926943808051593</v>
       </c>
       <c r="E97" t="n">
-        <v>1.272898620123676</v>
+        <v>1.276746609673279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1074072981325791</v>
+        <v>0.2291255080671285</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3126078667825268</v>
+        <v>-0.05912666328806414</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01668616969885862</v>
       </c>
       <c r="E98" t="n">
-        <v>1.203016958585267</v>
+        <v>1.11714195706117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1966197855998408</v>
+        <v>0.3788683532568977</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2998641841625528</v>
+        <v>-0.07635387280281303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04315241037610633</v>
       </c>
       <c r="E99" t="n">
-        <v>1.161072713645303</v>
+        <v>1.042783477755431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2695364124257479</v>
+        <v>0.4545503604311805</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3030193038233706</v>
+        <v>-0.0996674807508308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06924706201927885</v>
       </c>
       <c r="E100" t="n">
-        <v>1.07724521583305</v>
+        <v>1.01497841394384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2208171686084665</v>
+        <v>0.3621424985384357</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2919553427471608</v>
+        <v>-0.1371824817362503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09246645187506917</v>
       </c>
       <c r="E101" t="n">
-        <v>1.062441221167021</v>
+        <v>0.8820401032398338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2961661590932448</v>
+        <v>0.3994214602219538</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3319740681106311</v>
+        <v>-0.296050960091524</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1160876853016181</v>
       </c>
       <c r="E102" t="n">
-        <v>1.038548188576093</v>
+        <v>0.8883729096265089</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2667344368367673</v>
+        <v>0.429740007142423</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2940296829687809</v>
+        <v>-0.1845025675210717</v>
       </c>
     </row>
   </sheetData>
